--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H2">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,22 +558,22 @@
         <v>0.471381</v>
       </c>
       <c r="O2">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="P2">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="Q2">
-        <v>6.410432306679001</v>
+        <v>1.751172192020333</v>
       </c>
       <c r="R2">
-        <v>57.693890760111</v>
+        <v>15.760549728183</v>
       </c>
       <c r="S2">
-        <v>0.2309155770234822</v>
+        <v>0.109893889643682</v>
       </c>
       <c r="T2">
-        <v>0.2309155770234822</v>
+        <v>0.109893889643682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H3">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>0.1413324638230279</v>
       </c>
       <c r="Q3">
-        <v>1.055125708033</v>
+        <v>0.2882343515378889</v>
       </c>
       <c r="R3">
-        <v>9.496131372297</v>
+        <v>2.594109163841</v>
       </c>
       <c r="S3">
-        <v>0.03800757110388606</v>
+        <v>0.01808799509480518</v>
       </c>
       <c r="T3">
-        <v>0.03800757110388606</v>
+        <v>0.01808799509480518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>138.659493</v>
       </c>
       <c r="I4">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J4">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.471381</v>
       </c>
       <c r="O4">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="P4">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="Q4">
-        <v>7.262383385537</v>
+        <v>7.262383385536999</v>
       </c>
       <c r="R4">
         <v>65.361450469833</v>
       </c>
       <c r="S4">
-        <v>0.2616044238217399</v>
+        <v>0.4557470487237193</v>
       </c>
       <c r="T4">
-        <v>0.2616044238217399</v>
+        <v>0.4557470487237192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>138.659493</v>
       </c>
       <c r="I5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>10.758174083391</v>
       </c>
       <c r="S5">
-        <v>0.04305880472708347</v>
+        <v>0.07501372832024883</v>
       </c>
       <c r="T5">
-        <v>0.04305880472708347</v>
+        <v>0.07501372832024882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H6">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I6">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J6">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.471381</v>
       </c>
       <c r="O6">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="P6">
-        <v>0.8586675361769721</v>
+        <v>0.858667536176972</v>
       </c>
       <c r="Q6">
-        <v>10.16459790091533</v>
+        <v>4.669413661398666</v>
       </c>
       <c r="R6">
-        <v>91.48138110823801</v>
+        <v>42.024722952588</v>
       </c>
       <c r="S6">
-        <v>0.3661475353317499</v>
+        <v>0.2930265978095707</v>
       </c>
       <c r="T6">
-        <v>0.3661475353317499</v>
+        <v>0.2930265978095707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H7">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I7">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J7">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,16 +874,16 @@
         <v>0.1413324638230279</v>
       </c>
       <c r="Q7">
-        <v>1.673042946869556</v>
+        <v>0.7685625804751112</v>
       </c>
       <c r="R7">
-        <v>15.057386521826</v>
+        <v>6.917063224276</v>
       </c>
       <c r="S7">
-        <v>0.0602660879920584</v>
+        <v>0.04823074040797393</v>
       </c>
       <c r="T7">
-        <v>0.0602660879920584</v>
+        <v>0.04823074040797393</v>
       </c>
     </row>
   </sheetData>
